--- a/doc/数据库接口设计.xlsx
+++ b/doc/数据库接口设计.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitLibrary\SimpleWebProject\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="总" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="user" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="admin" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="community" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="transaction" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="production" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="item" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="PI" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="总" sheetId="1" r:id="rId1"/>
+    <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="admin" sheetId="3" r:id="rId3"/>
+    <sheet name="community" sheetId="4" r:id="rId4"/>
+    <sheet name="transaction" sheetId="5" r:id="rId5"/>
+    <sheet name="production" sheetId="6" r:id="rId6"/>
+    <sheet name="item" sheetId="7" r:id="rId7"/>
+    <sheet name="PI" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,250 +31,259 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
-  <si>
-    <t xml:space="preserve">collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据库表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用途</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户信息表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comminity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">社区信息表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">流水信息表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品信息表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工艺信息表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection名：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">说明：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">含义</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，user id, 从1开始自增</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u_role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user role: root/admin/user  分别对应超级管理员/社区管理员/普通员工</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#c_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，社区的id，超管的c_id为0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">社区管理员关系表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，外键，community id, 哈希</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，社区管理员的id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，community id, 从1开始自增</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">community name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product id, 从1开始自增</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#u_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，该项流水的责任人的id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，社区id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#p_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，产品id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#i_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键，工艺id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">时间戳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，product id, 按产品名哈希</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品设计者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工艺程序表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，item id, 按产品名工艺名哈希</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i_minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">该工艺所需时间（分钟）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i_unitprices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">该工艺单价(每分钟)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i_prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">该工艺单价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品工序关系表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，外键，product id, 哈希</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主键，外键，item id, 哈希</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>数据库表</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>用户信息表</t>
+  </si>
+  <si>
+    <t>comminity</t>
+  </si>
+  <si>
+    <t>社区信息表</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>流水信息表</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>产品信息表</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>工艺信息表</t>
+  </si>
+  <si>
+    <t>collection名：</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>u_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>主键，user id, 从1开始自增</t>
+  </si>
+  <si>
+    <t>u_name</t>
+  </si>
+  <si>
+    <t>char(30)</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>u_role</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>user role: root/admin/user  分别对应超级管理员/社区管理员/普通员工</t>
+  </si>
+  <si>
+    <t>#c_id</t>
+  </si>
+  <si>
+    <t>外键，社区的id，超管的c_id为0</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>社区管理员关系表</t>
+  </si>
+  <si>
+    <t>c_id</t>
+  </si>
+  <si>
+    <t>主键，外键，community id, 哈希</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>外键，社区管理员的id</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>主键，community id, 从1开始自增</t>
+  </si>
+  <si>
+    <t>c_name</t>
+  </si>
+  <si>
+    <t>community name</t>
+  </si>
+  <si>
+    <t>t_id</t>
+  </si>
+  <si>
+    <t>product id, 从1开始自增</t>
+  </si>
+  <si>
+    <t>#u_id</t>
+  </si>
+  <si>
+    <t>外键，该项流水的责任人的id</t>
+  </si>
+  <si>
+    <t>外键，社区id</t>
+  </si>
+  <si>
+    <t>#p_id</t>
+  </si>
+  <si>
+    <t>外键，产品id</t>
+  </si>
+  <si>
+    <t>#i_id</t>
+  </si>
+  <si>
+    <t>外键，工艺id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>char(20)</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>p_id</t>
+  </si>
+  <si>
+    <t>主键，product id, 按产品名哈希</t>
+  </si>
+  <si>
+    <t>p_name</t>
+  </si>
+  <si>
+    <t>char(60)</t>
+  </si>
+  <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>author_name</t>
+  </si>
+  <si>
+    <t>产品设计者</t>
+  </si>
+  <si>
+    <t>工艺程序表</t>
+  </si>
+  <si>
+    <t>i_id</t>
+  </si>
+  <si>
+    <t>主键，item id, 按产品名工艺名哈希</t>
+  </si>
+  <si>
+    <t>i_name</t>
+  </si>
+  <si>
+    <t>char(90)</t>
+  </si>
+  <si>
+    <t>item name</t>
+  </si>
+  <si>
+    <t>i_minutes</t>
+  </si>
+  <si>
+    <t>该工艺所需时间（分钟）</t>
+  </si>
+  <si>
+    <t>i_unitprices</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>该工艺单价(每分钟)</t>
+  </si>
+  <si>
+    <t>i_prices</t>
+  </si>
+  <si>
+    <t>该工艺单价</t>
+  </si>
+  <si>
+    <t>产品工序关系表</t>
+  </si>
+  <si>
+    <t>主键，外键，product id, 哈希</t>
+  </si>
+  <si>
+    <t>主键，外键，item id, 哈希</t>
+  </si>
+  <si>
+    <t>u_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -279,25 +292,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -316,7 +320,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -324,61 +328,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -437,38 +412,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.319587628866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.45360824742268"/>
+    <col min="1" max="1" width="11.375"/>
+    <col min="2" max="2" width="11.875"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,93 +759,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9123711340206"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.45360824742268"/>
+    <col min="1" max="1" width="14.5" style="5"/>
+    <col min="2" max="2" width="19.375" style="5"/>
+    <col min="3" max="3" width="28.875" style="5"/>
+    <col min="4" max="1025" width="8.5" style="5"/>
+    <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -573,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -584,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -595,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -606,45 +883,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.639175257732"/>
+    <col min="1" max="1025" width="11.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -652,7 +933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -660,11 +941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -675,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -686,7 +963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -697,12 +974,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -710,25 +987,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7783505154639"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.45360824742268"/>
+    <col min="1" max="1" width="14.5"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="31.75"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -736,7 +1010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -744,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -755,7 +1029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -766,7 +1040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -777,38 +1051,31 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9123711340206"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.45360824742268"/>
+    <col min="1" max="1" width="14.5"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="28.875"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -816,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -824,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -835,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -846,7 +1113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -857,7 +1124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -868,7 +1135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -879,7 +1146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -890,7 +1157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -901,7 +1168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -913,36 +1180,29 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7783505154639"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.45360824742268"/>
+    <col min="1" max="1" width="14.5"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="31.75"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -950,7 +1210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -958,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -969,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -980,7 +1240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -991,48 +1251,41 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5051546391753"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.45360824742268"/>
+    <col min="1" max="1" width="14.5"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="34.5"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1059,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1070,7 +1323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1081,81 +1334,74 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5515463917526"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.45360824742268"/>
+    <col min="1" max="1" width="14.5"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="36.5"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -1193,7 +1439,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1205,12 +1451,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/doc/数据库接口设计.xlsx
+++ b/doc/数据库接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -346,6 +346,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -810,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -916,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -942,35 +948,35 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1274,7 +1280,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
